--- a/해커톤/최종직전의데이터(일상).xlsx
+++ b/해커톤/최종직전의데이터(일상).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>dislikes_count</t>
   </si>
@@ -407,21 +407,6 @@
   </si>
   <si>
     <t>10:07</t>
-  </si>
-  <si>
-    <t>애완</t>
-  </si>
-  <si>
-    <t>일상</t>
-  </si>
-  <si>
-    <t>여행</t>
-  </si>
-  <si>
-    <t>리뷰</t>
-  </si>
-  <si>
-    <t>장난</t>
   </si>
 </sst>
 </file>
@@ -853,8 +838,8 @@
       <c r="H2">
         <v>891271</v>
       </c>
-      <c r="I2" t="s">
-        <v>131</v>
+      <c r="I2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -882,8 +867,8 @@
       <c r="H3">
         <v>2564107</v>
       </c>
-      <c r="I3" t="s">
-        <v>132</v>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -911,8 +896,8 @@
       <c r="H4">
         <v>2540005</v>
       </c>
-      <c r="I4" t="s">
-        <v>132</v>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -940,8 +925,8 @@
       <c r="H5">
         <v>2001288</v>
       </c>
-      <c r="I5" t="s">
-        <v>132</v>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -969,8 +954,8 @@
       <c r="H6">
         <v>1997852</v>
       </c>
-      <c r="I6" t="s">
-        <v>132</v>
+      <c r="I6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -998,8 +983,8 @@
       <c r="H7">
         <v>1778799</v>
       </c>
-      <c r="I7" t="s">
-        <v>132</v>
+      <c r="I7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1027,8 +1012,8 @@
       <c r="H8">
         <v>1718884</v>
       </c>
-      <c r="I8" t="s">
-        <v>132</v>
+      <c r="I8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1056,8 +1041,8 @@
       <c r="H9">
         <v>1644141</v>
       </c>
-      <c r="I9" t="s">
-        <v>132</v>
+      <c r="I9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1085,8 +1070,8 @@
       <c r="H10">
         <v>1506331</v>
       </c>
-      <c r="I10" t="s">
-        <v>132</v>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1114,8 +1099,8 @@
       <c r="H11">
         <v>1387306</v>
       </c>
-      <c r="I11" t="s">
-        <v>132</v>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1143,8 +1128,8 @@
       <c r="H12">
         <v>1375473</v>
       </c>
-      <c r="I12" t="s">
-        <v>132</v>
+      <c r="I12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1172,8 +1157,8 @@
       <c r="H13">
         <v>1796245</v>
       </c>
-      <c r="I13" t="s">
-        <v>133</v>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1201,8 +1186,8 @@
       <c r="H14">
         <v>1720549</v>
       </c>
-      <c r="I14" t="s">
-        <v>133</v>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1230,8 +1215,8 @@
       <c r="H15">
         <v>914720</v>
       </c>
-      <c r="I15" t="s">
-        <v>133</v>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1259,8 +1244,8 @@
       <c r="H16">
         <v>906566</v>
       </c>
-      <c r="I16" t="s">
-        <v>133</v>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1288,8 +1273,8 @@
       <c r="H17">
         <v>866957</v>
       </c>
-      <c r="I17" t="s">
-        <v>133</v>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1317,8 +1302,8 @@
       <c r="H18">
         <v>740904</v>
       </c>
-      <c r="I18" t="s">
-        <v>133</v>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1346,8 +1331,8 @@
       <c r="H19">
         <v>625853</v>
       </c>
-      <c r="I19" t="s">
-        <v>133</v>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1375,8 +1360,8 @@
       <c r="H20">
         <v>512833</v>
       </c>
-      <c r="I20" t="s">
-        <v>133</v>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1404,8 +1389,8 @@
       <c r="H21">
         <v>438121</v>
       </c>
-      <c r="I21" t="s">
-        <v>133</v>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1433,8 +1418,8 @@
       <c r="H22">
         <v>364694</v>
       </c>
-      <c r="I22" t="s">
-        <v>133</v>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1462,8 +1447,8 @@
       <c r="H23">
         <v>1091148</v>
       </c>
-      <c r="I23" t="s">
-        <v>134</v>
+      <c r="I23">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1491,8 +1476,8 @@
       <c r="H24">
         <v>922464</v>
       </c>
-      <c r="I24" t="s">
-        <v>134</v>
+      <c r="I24">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1520,8 +1505,8 @@
       <c r="H25">
         <v>734094</v>
       </c>
-      <c r="I25" t="s">
-        <v>134</v>
+      <c r="I25">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1549,8 +1534,8 @@
       <c r="H26">
         <v>685696</v>
       </c>
-      <c r="I26" t="s">
-        <v>134</v>
+      <c r="I26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1578,8 +1563,8 @@
       <c r="H27">
         <v>338845</v>
       </c>
-      <c r="I27" t="s">
-        <v>134</v>
+      <c r="I27">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1607,8 +1592,8 @@
       <c r="H28">
         <v>322359</v>
       </c>
-      <c r="I28" t="s">
-        <v>134</v>
+      <c r="I28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1636,8 +1621,8 @@
       <c r="H29">
         <v>269990</v>
       </c>
-      <c r="I29" t="s">
-        <v>134</v>
+      <c r="I29">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1665,8 +1650,8 @@
       <c r="H30">
         <v>240278</v>
       </c>
-      <c r="I30" t="s">
-        <v>134</v>
+      <c r="I30">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1694,8 +1679,8 @@
       <c r="H31">
         <v>206024</v>
       </c>
-      <c r="I31" t="s">
-        <v>134</v>
+      <c r="I31">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1723,8 +1708,8 @@
       <c r="H32">
         <v>160115</v>
       </c>
-      <c r="I32" t="s">
-        <v>134</v>
+      <c r="I32">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1752,8 +1737,8 @@
       <c r="H33">
         <v>2505771</v>
       </c>
-      <c r="I33" t="s">
-        <v>135</v>
+      <c r="I33">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1781,8 +1766,8 @@
       <c r="H34">
         <v>2306839</v>
       </c>
-      <c r="I34" t="s">
-        <v>135</v>
+      <c r="I34">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1810,8 +1795,8 @@
       <c r="H35">
         <v>2129334</v>
       </c>
-      <c r="I35" t="s">
-        <v>135</v>
+      <c r="I35">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1839,8 +1824,8 @@
       <c r="H36">
         <v>2038462</v>
       </c>
-      <c r="I36" t="s">
-        <v>135</v>
+      <c r="I36">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1868,8 +1853,8 @@
       <c r="H37">
         <v>2014824</v>
       </c>
-      <c r="I37" t="s">
-        <v>135</v>
+      <c r="I37">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1897,8 +1882,8 @@
       <c r="H38">
         <v>1987098</v>
       </c>
-      <c r="I38" t="s">
-        <v>135</v>
+      <c r="I38">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1926,8 +1911,8 @@
       <c r="H39">
         <v>1974421</v>
       </c>
-      <c r="I39" t="s">
-        <v>135</v>
+      <c r="I39">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1955,8 +1940,8 @@
       <c r="H40">
         <v>1911884</v>
       </c>
-      <c r="I40" t="s">
-        <v>135</v>
+      <c r="I40">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1984,8 +1969,8 @@
       <c r="H41">
         <v>1826671</v>
       </c>
-      <c r="I41" t="s">
-        <v>135</v>
+      <c r="I41">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2013,8 +1998,8 @@
       <c r="H42">
         <v>1647496</v>
       </c>
-      <c r="I42" t="s">
-        <v>135</v>
+      <c r="I42">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
